--- a/初期データ_ver1.xlsx
+++ b/初期データ_ver1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j-murata\Desktop\人事評価システム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58493DF-9CB6-4F4A-B51B-C2BF654E8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9AAE7B-BBFB-4AA2-83EF-ACE61E61ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="737" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="737" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TM_point（ポイントテーブル）" sheetId="2" r:id="rId1"/>
     <sheet name="TM_salary（給与テーブル）" sheetId="1" r:id="rId2"/>
-    <sheet name="TE_self_check（自己評価）" sheetId="3" r:id="rId3"/>
+    <sheet name="TM_self_check（自己評価）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TM_point（ポイントテーブル）'!$B$3:$H$44</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="143">
   <si>
     <t>業務に必要な資格を会社指示で取得</t>
     <rPh sb="0" eb="2">
@@ -51,11 +51,11 @@
     <rPh sb="14" eb="16">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC010</t>
@@ -74,7 +74,7 @@
     <rPh sb="6" eb="7">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC009</t>
@@ -96,7 +96,7 @@
     <rPh sb="14" eb="16">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC008</t>
@@ -118,7 +118,7 @@
     <rPh sb="14" eb="16">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC007</t>
@@ -140,7 +140,7 @@
     <rPh sb="14" eb="16">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC006</t>
@@ -162,7 +162,7 @@
     <rPh sb="9" eb="11">
       <t>カクトク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC005</t>
@@ -175,7 +175,7 @@
     <rPh sb="3" eb="5">
       <t>ハンロ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC004</t>
@@ -209,7 +209,7 @@
     <rPh sb="22" eb="24">
       <t>カクチョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC003</t>
@@ -234,14 +234,14 @@
     <rPh sb="33" eb="35">
       <t>シキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC002</t>
   </si>
   <si>
     <t>企画（要承認）出欠確認、店などとの交渉、司会運営、集金や支払い</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>社内勉強会と社内イベントの両方を各1回以上実施　</t>
@@ -269,11 +269,11 @@
     <rPh sb="21" eb="23">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CC001</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ITサービズマネージャ・ETECクラス１　500点以上</t>
@@ -283,74 +283,52 @@
     <rPh sb="25" eb="27">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Q</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ML005</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロジェクトマネージャー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ML004</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>システムアーキテクト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ML003</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ITストラテジスト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ML002</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>情報セキュリティマネジメント</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ML001</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>TOEIC600以上　or　N1</t>
     <rPh sb="8" eb="10">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TL010</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>TOEIC300以上　or　N2</t>
     <rPh sb="8" eb="10">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TL009</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>MCP各種のうち1種</t>
@@ -360,14 +338,11 @@
     <rPh sb="9" eb="10">
       <t>シュ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TL008</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>１種1pt2種2pt3種コンプリート</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>別紙３種（言語、OS、DBなど）で合計145点以上</t>
@@ -389,33 +364,24 @@
     <rPh sb="23" eb="25">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TL007</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>いずれか１つ</t>
   </si>
   <si>
     <t>ネットワークスペシャリスト・データベーススペシャリスト・ エンベデッドシステムスペシャリスト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TL006</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CCNA</t>
-  </si>
-  <si>
-    <t>TL005</t>
   </si>
   <si>
     <t>TL003を包含</t>
     <rPh sb="6" eb="8">
       <t>ホウガン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>応用情報</t>
@@ -425,15 +391,11 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TL004</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>TL002を包含</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>基本情報</t>
@@ -443,23 +405,13 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TL003</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ITパスポート</t>
   </si>
   <si>
-    <t>TL002</t>
-  </si>
-  <si>
     <t>MOS Excelエキスパート</t>
-  </si>
-  <si>
-    <t>TL001</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>部下の業務をフォローする事、また上位へ遅滞なく報告する事</t>
@@ -472,14 +424,11 @@
     <rPh sb="3" eb="5">
       <t>カカリチョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MC005</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>配下に主任を2名持った</t>
@@ -495,10 +444,7 @@
     <rPh sb="8" eb="9">
       <t>モ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MC004</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>現場を跨いで5名の社員を面倒見るリーダー</t>
@@ -520,10 +466,7 @@
     <rPh sb="14" eb="15">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MC003</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>自分のチームで3名以上の部下を持った</t>
@@ -542,10 +485,7 @@
     <rPh sb="15" eb="16">
       <t>モ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MC002</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>自分のチームで1名の部下を持った</t>
@@ -561,11 +501,7 @@
     <rPh sb="13" eb="14">
       <t>モ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MC001 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CLの仕事でPM経験1回　</t>
@@ -578,10 +514,7 @@
     <rPh sb="11" eb="12">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TC008</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CLの仕事でPL経験2回　</t>
@@ -594,14 +527,11 @@
     <rPh sb="11" eb="12">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TC007</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>TC005との選択</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>PGのみの経験15年（経歴書ベース自己申告）</t>
@@ -620,10 +550,7 @@
     <rPh sb="19" eb="21">
       <t>シンコク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TC006</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>基本設計（UML等の）知識必須、SEPGの期間もSEとみなす　</t>
@@ -648,11 +575,7 @@
     <rPh sb="17" eb="19">
       <t>シンコク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TC005</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスター含まない出来ると言った結果出来なかったら剥奪</t>
@@ -677,10 +600,7 @@
     <rPh sb="17" eb="19">
       <t>シンコク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TC004</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>35歳までに技術経験12年　</t>
@@ -696,10 +616,7 @@
     <rPh sb="12" eb="13">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TC003</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>30歳までに勤続10年になった(中途採用の方は30歳＋ITパスポート取得）</t>
@@ -727,10 +644,7 @@
     <rPh sb="34" eb="36">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TC002</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>高卒で通算24か月実務稼働</t>
@@ -749,96 +663,92 @@
     <rPh sb="11" eb="13">
       <t>カドウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TC001</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>主キー</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>not null 制約</t>
     <rPh sb="9" eb="11">
       <t>セイヤク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>桁数</t>
     <rPh sb="0" eb="2">
       <t>ケタスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>note</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Expt</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>pt</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>detail</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>jq_kbn</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>tm_kbn</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>title_cd</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>上位ポイント</t>
     <rPh sb="0" eb="2">
       <t>ジョウイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ポイント</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>業資区分</t>
@@ -851,7 +761,7 @@
     <rPh sb="2" eb="4">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>技管区分</t>
@@ -864,89 +774,89 @@
     <rPh sb="2" eb="4">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>タイトル区分</t>
     <rPh sb="4" eb="6">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="3">
       <t>ロンリメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ランク</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>L1</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>L2</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>L3</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>L4</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>L5</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>削除サイン</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>等級</t>
     <rPh sb="0" eb="2">
       <t>トウキュウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>rank</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>class</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>salary</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>del_flg</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>給与</t>
     <rPh sb="0" eb="2">
       <t>キュウヨ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>基本ポイント</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>業務連絡を受けた時に素早く応答できた。</t>
@@ -968,7 +878,7 @@
     <rPh sb="13" eb="15">
       <t>オウトウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>速やかに上司に報告できた。</t>
@@ -981,7 +891,7 @@
     <rPh sb="7" eb="9">
       <t>ホウコク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>勤怠就業態度のクレームが有った</t>
@@ -997,14 +907,14 @@
     <rPh sb="12" eb="13">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>スキル不足のクレームがあった</t>
     <rPh sb="3" eb="5">
       <t>フソク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>7.8.で懲戒処分を受けた</t>
@@ -1017,11 +927,11 @@
     <rPh sb="10" eb="11">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>スキルアップor自己啓発</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>社内イベント(勉強会等)の企画・運営できた。　</t>
@@ -1040,7 +950,7 @@
     <rPh sb="16" eb="18">
       <t>ウンエイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>評価項目</t>
@@ -1050,31 +960,160 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>self_check</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SC001</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SC002</t>
+  </si>
+  <si>
+    <t>SC003</t>
+  </si>
+  <si>
+    <t>SC004</t>
+  </si>
+  <si>
+    <t>SC005</t>
+  </si>
+  <si>
+    <t>SC006</t>
+  </si>
+  <si>
+    <t>SC007</t>
+  </si>
+  <si>
+    <t>SC008</t>
+  </si>
+  <si>
+    <t>TJ001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>TJ002</t>
+  </si>
+  <si>
+    <t>TJ003</t>
+  </si>
+  <si>
+    <t>TJ004</t>
+  </si>
+  <si>
+    <t>TJ005</t>
+  </si>
+  <si>
+    <t>TJ006</t>
+  </si>
+  <si>
+    <t>TJ007</t>
+  </si>
+  <si>
+    <t>TJ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJ001 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>MJ002</t>
+  </si>
+  <si>
+    <t>MJ003</t>
+  </si>
+  <si>
+    <t>MJ004</t>
+  </si>
+  <si>
+    <t>MJ005</t>
+  </si>
+  <si>
+    <t>TQ001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>TQ002</t>
+  </si>
+  <si>
+    <t>TQ003</t>
+  </si>
+  <si>
+    <t>TQ004</t>
+  </si>
+  <si>
+    <t>TQ005</t>
+  </si>
+  <si>
+    <t>TQ006</t>
+  </si>
+  <si>
+    <t>TQ007</t>
+  </si>
+  <si>
+    <t>TQ008</t>
+  </si>
+  <si>
+    <t>TQ009</t>
+  </si>
+  <si>
+    <t>TQ010</t>
+  </si>
+  <si>
+    <t>MQ001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>MQ002</t>
+  </si>
+  <si>
+    <t>MQ003</t>
+  </si>
+  <si>
+    <t>MQ004</t>
+  </si>
+  <si>
+    <t>MQ005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1162,74 +1201,77 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1517,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D677A-F5F3-4C2E-AF25-352318D6DAE3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1539,65 +1581,65 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11">
         <v>5</v>
@@ -1626,19 +1668,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -1647,10 +1689,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1661,17 +1703,17 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="3" t="s">
-        <v>89</v>
+      <c r="B7" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1685,17 +1727,17 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="3" t="s">
-        <v>87</v>
+      <c r="B8" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1709,17 +1751,17 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="3" t="s">
-        <v>85</v>
+      <c r="B9" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -1733,17 +1775,17 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="3" t="s">
-        <v>83</v>
+      <c r="B10" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
@@ -1752,24 +1794,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="3" t="s">
-        <v>80</v>
+      <c r="B11" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9">
         <v>3</v>
@@ -1778,24 +1820,24 @@
         <v>1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="3" t="s">
-        <v>77</v>
+      <c r="B12" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F12" s="9">
         <v>3</v>
@@ -1804,24 +1846,24 @@
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="3" t="s">
-        <v>74</v>
+      <c r="B13" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -1835,17 +1877,17 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="3" t="s">
-        <v>72</v>
+      <c r="B14" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -1859,17 +1901,17 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="3" t="s">
-        <v>70</v>
+      <c r="B15" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1878,24 +1920,24 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+      <c r="B16" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1904,24 +1946,24 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="3" t="s">
-        <v>66</v>
+      <c r="B17" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -1930,24 +1972,24 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="3" t="s">
-        <v>64</v>
+      <c r="B18" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1956,24 +1998,24 @@
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="3" t="s">
-        <v>62</v>
+      <c r="B19" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1982,24 +2024,24 @@
         <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="3" t="s">
-        <v>58</v>
+      <c r="B20" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
@@ -2013,17 +2055,17 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="3" t="s">
-        <v>56</v>
+      <c r="B21" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
@@ -2037,17 +2079,17 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="3" t="s">
-        <v>54</v>
+      <c r="B22" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -2056,24 +2098,24 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="3" t="s">
-        <v>51</v>
+      <c r="B23" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2082,24 +2124,24 @@
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="3" t="s">
-        <v>48</v>
+      <c r="B24" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -2113,17 +2155,17 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="3" t="s">
-        <v>46</v>
+      <c r="B25" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -2132,24 +2174,24 @@
         <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B26" s="3" t="s">
-        <v>43</v>
+      <c r="B26" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -2158,24 +2200,24 @@
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="3" t="s">
-        <v>40</v>
+      <c r="B27" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -2189,17 +2231,17 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="3" t="s">
-        <v>38</v>
+      <c r="B28" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -2213,17 +2255,17 @@
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="3" t="s">
-        <v>36</v>
+      <c r="B29" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -2237,8 +2279,8 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="3" t="s">
-        <v>33</v>
+      <c r="B30" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>24</v>
@@ -2247,7 +2289,7 @@
         <v>23</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -2261,8 +2303,8 @@
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="3" t="s">
-        <v>31</v>
+      <c r="B31" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
@@ -2271,7 +2313,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -2285,8 +2327,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="3" t="s">
-        <v>29</v>
+      <c r="B32" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -2295,7 +2337,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -2309,8 +2351,8 @@
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="3" t="s">
-        <v>27</v>
+      <c r="B33" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>24</v>
@@ -2319,7 +2361,7 @@
         <v>23</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -2333,8 +2375,8 @@
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="3" t="s">
-        <v>25</v>
+      <c r="B34" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>24</v>
@@ -2599,7 +2641,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2625,53 +2667,53 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
@@ -2694,34 +2736,34 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2730,7 +2772,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -2750,7 +2792,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -2770,7 +2812,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C8" s="13">
         <v>3</v>
@@ -2790,7 +2832,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C9" s="13">
         <v>4</v>
@@ -2810,7 +2852,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C10" s="13">
         <v>5</v>
@@ -2830,7 +2872,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C11" s="13">
         <v>6</v>
@@ -2850,7 +2892,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C12" s="13">
         <v>7</v>
@@ -2870,7 +2912,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C13" s="13">
         <v>8</v>
@@ -2890,7 +2932,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C14" s="13">
         <v>9</v>
@@ -2910,7 +2952,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C15" s="13">
         <v>10</v>
@@ -2930,7 +2972,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C16" s="13">
         <v>11</v>
@@ -2950,7 +2992,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C17" s="13">
         <v>12</v>
@@ -2970,7 +3012,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C18" s="13">
         <v>13</v>
@@ -2990,7 +3032,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C19" s="13">
         <v>14</v>
@@ -3010,7 +3052,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C20" s="13">
         <v>15</v>
@@ -3030,7 +3072,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C21" s="13">
         <v>16</v>
@@ -3050,7 +3092,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C22" s="13">
         <v>17</v>
@@ -3070,7 +3112,7 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C23" s="13">
         <v>18</v>
@@ -3090,7 +3132,7 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C24" s="13">
         <v>19</v>
@@ -3110,7 +3152,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C25" s="13">
         <v>20</v>
@@ -3130,7 +3172,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C26" s="13">
         <v>21</v>
@@ -3150,7 +3192,7 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C27" s="13">
         <v>22</v>
@@ -3170,7 +3212,7 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C28" s="13">
         <v>23</v>
@@ -3190,7 +3232,7 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C29" s="13">
         <v>24</v>
@@ -3210,7 +3252,7 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="13" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C30" s="13">
         <v>25</v>
@@ -3230,7 +3272,7 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
@@ -3250,7 +3292,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C32" s="13">
         <v>2</v>
@@ -3270,7 +3312,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C33" s="13">
         <v>3</v>
@@ -3290,7 +3332,7 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C34" s="13">
         <v>4</v>
@@ -3310,7 +3352,7 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C35" s="13">
         <v>5</v>
@@ -3330,7 +3372,7 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C36" s="13">
         <v>6</v>
@@ -3350,7 +3392,7 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C37" s="13">
         <v>7</v>
@@ -3370,7 +3412,7 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C38" s="13">
         <v>8</v>
@@ -3390,7 +3432,7 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C39" s="13">
         <v>9</v>
@@ -3410,7 +3452,7 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C40" s="13">
         <v>10</v>
@@ -3430,7 +3472,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C41" s="13">
         <v>11</v>
@@ -3450,7 +3492,7 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -3470,7 +3512,7 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C43" s="13">
         <v>13</v>
@@ -3490,7 +3532,7 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C44" s="13">
         <v>14</v>
@@ -3510,7 +3552,7 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C45" s="13">
         <v>15</v>
@@ -3530,7 +3572,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C46" s="13">
         <v>16</v>
@@ -3550,7 +3592,7 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C47" s="13">
         <v>17</v>
@@ -3570,7 +3612,7 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C48" s="13">
         <v>18</v>
@@ -3590,7 +3632,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C49" s="13">
         <v>19</v>
@@ -3610,7 +3652,7 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C50" s="13">
         <v>20</v>
@@ -3630,7 +3672,7 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C51" s="13">
         <v>21</v>
@@ -3650,7 +3692,7 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C52" s="13">
         <v>22</v>
@@ -3670,7 +3712,7 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C53" s="13">
         <v>23</v>
@@ -3690,7 +3732,7 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C54" s="13">
         <v>24</v>
@@ -3710,7 +3752,7 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C55" s="13">
         <v>25</v>
@@ -3730,7 +3772,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C56" s="13">
         <v>1</v>
@@ -3750,7 +3792,7 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C57" s="13">
         <v>2</v>
@@ -3770,7 +3812,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C58" s="13">
         <v>3</v>
@@ -3790,7 +3832,7 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C59" s="13">
         <v>4</v>
@@ -3810,7 +3852,7 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C60" s="13">
         <v>5</v>
@@ -3830,7 +3872,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C61" s="13">
         <v>6</v>
@@ -3850,7 +3892,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C62" s="13">
         <v>7</v>
@@ -3870,7 +3912,7 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C63" s="13">
         <v>8</v>
@@ -3890,7 +3932,7 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C64" s="13">
         <v>9</v>
@@ -3910,7 +3952,7 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C65" s="13">
         <v>10</v>
@@ -3930,7 +3972,7 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C66" s="13">
         <v>11</v>
@@ -3950,7 +3992,7 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C67" s="13">
         <v>12</v>
@@ -3970,7 +4012,7 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C68" s="13">
         <v>13</v>
@@ -3990,7 +4032,7 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C69" s="13">
         <v>14</v>
@@ -4010,7 +4052,7 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C70" s="13">
         <v>15</v>
@@ -4030,7 +4072,7 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C71" s="13">
         <v>16</v>
@@ -4050,7 +4092,7 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C72" s="13">
         <v>17</v>
@@ -4070,7 +4112,7 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C73" s="13">
         <v>18</v>
@@ -4090,7 +4132,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C74" s="13">
         <v>19</v>
@@ -4110,7 +4152,7 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C75" s="13">
         <v>20</v>
@@ -4130,7 +4172,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C76" s="13">
         <v>21</v>
@@ -4150,7 +4192,7 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C77" s="13">
         <v>22</v>
@@ -4170,7 +4212,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C78" s="13">
         <v>23</v>
@@ -4190,7 +4232,7 @@
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C79" s="13">
         <v>24</v>
@@ -4210,7 +4252,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="13" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C80" s="13">
         <v>25</v>
@@ -4230,7 +4272,7 @@
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C81" s="13">
         <v>1</v>
@@ -4250,7 +4292,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C82" s="13">
         <v>2</v>
@@ -4270,7 +4312,7 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C83" s="13">
         <v>3</v>
@@ -4290,7 +4332,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C84" s="13">
         <v>4</v>
@@ -4310,7 +4352,7 @@
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C85" s="13">
         <v>5</v>
@@ -4330,7 +4372,7 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C86" s="13">
         <v>6</v>
@@ -4350,7 +4392,7 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C87" s="13">
         <v>7</v>
@@ -4370,7 +4412,7 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C88" s="13">
         <v>8</v>
@@ -4390,7 +4432,7 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C89" s="13">
         <v>9</v>
@@ -4410,7 +4452,7 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C90" s="13">
         <v>10</v>
@@ -4430,7 +4472,7 @@
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C91" s="13">
         <v>11</v>
@@ -4450,7 +4492,7 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C92" s="13">
         <v>12</v>
@@ -4470,7 +4512,7 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C93" s="13">
         <v>13</v>
@@ -4490,7 +4532,7 @@
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C94" s="13">
         <v>14</v>
@@ -4510,7 +4552,7 @@
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C95" s="13">
         <v>15</v>
@@ -4530,7 +4572,7 @@
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C96" s="13">
         <v>16</v>
@@ -4550,7 +4592,7 @@
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C97" s="13">
         <v>17</v>
@@ -4570,7 +4612,7 @@
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C98" s="13">
         <v>18</v>
@@ -4590,7 +4632,7 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C99" s="13">
         <v>19</v>
@@ -4610,7 +4652,7 @@
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C100" s="13">
         <v>20</v>
@@ -4630,7 +4672,7 @@
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C101" s="13">
         <v>21</v>
@@ -4650,7 +4692,7 @@
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C102" s="13">
         <v>22</v>
@@ -4670,7 +4712,7 @@
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C103" s="13">
         <v>23</v>
@@ -4690,7 +4732,7 @@
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C104" s="13">
         <v>24</v>
@@ -4710,7 +4752,7 @@
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="13" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C105" s="13">
         <v>25</v>
@@ -4730,7 +4772,7 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C106" s="13">
         <v>1</v>
@@ -4750,7 +4792,7 @@
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C107" s="13">
         <v>2</v>
@@ -4770,7 +4812,7 @@
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C108" s="13">
         <v>3</v>
@@ -4790,7 +4832,7 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C109" s="13">
         <v>4</v>
@@ -4810,7 +4852,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C110" s="13">
         <v>5</v>
@@ -4830,7 +4872,7 @@
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C111" s="13">
         <v>6</v>
@@ -4850,7 +4892,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C112" s="13">
         <v>7</v>
@@ -4870,7 +4912,7 @@
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C113" s="13">
         <v>8</v>
@@ -4890,7 +4932,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C114" s="13">
         <v>9</v>
@@ -4910,7 +4952,7 @@
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C115" s="13">
         <v>10</v>
@@ -4930,7 +4972,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C116" s="13">
         <v>11</v>
@@ -4950,7 +4992,7 @@
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C117" s="13">
         <v>12</v>
@@ -4970,7 +5012,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C118" s="13">
         <v>13</v>
@@ -4990,7 +5032,7 @@
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C119" s="13">
         <v>14</v>
@@ -5010,7 +5052,7 @@
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C120" s="13">
         <v>15</v>
@@ -5030,7 +5072,7 @@
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C121" s="13">
         <v>16</v>
@@ -5050,7 +5092,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C122" s="13">
         <v>17</v>
@@ -5070,7 +5112,7 @@
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C123" s="13">
         <v>18</v>
@@ -5090,7 +5132,7 @@
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C124" s="13">
         <v>19</v>
@@ -5110,7 +5152,7 @@
     </row>
     <row r="125" spans="2:7">
       <c r="B125" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C125" s="13">
         <v>20</v>
@@ -5130,7 +5172,7 @@
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C126" s="13">
         <v>21</v>
@@ -5150,7 +5192,7 @@
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C127" s="13">
         <v>22</v>
@@ -5170,7 +5212,7 @@
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C128" s="13">
         <v>23</v>
@@ -5190,7 +5232,7 @@
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C129" s="13">
         <v>24</v>
@@ -5210,7 +5252,7 @@
     </row>
     <row r="130" spans="2:7">
       <c r="B130" s="13" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C130" s="13">
         <v>25</v>
@@ -5229,7 +5271,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5238,14 +5280,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ACFD74-67CF-47FB-B23B-2917043ED2A0}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -5253,44 +5295,44 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B3" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="11">
         <v>200</v>
@@ -5304,146 +5346,146 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="18">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="18">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="B8" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="18">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="18">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="18">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="B11" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="17">
         <v>-2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="18">
-        <v>8</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="18">
+      <c r="B12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="17">
         <v>-1</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="18">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="18">
+      <c r="B13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="17">
         <v>-2</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>